--- a/Base/Backlog_18.xlsx
+++ b/Base/Backlog_18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE53A631-164C-4EAF-8048-DE424DA17AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56682469-2E81-4792-887E-B0F6B17F240E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="30">
   <si>
     <t>Backlog</t>
   </si>
@@ -125,13 +125,19 @@
   </si>
   <si>
     <t>Kleberson Matias</t>
+  </si>
+  <si>
+    <t>Resolvido</t>
+  </si>
+  <si>
+    <t>Problema</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +172,13 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -244,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -296,21 +309,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,10 +643,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:K25"/>
+      <selection sqref="A1:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -649,7 +666,7 @@
     <col min="13" max="16384" width="9.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
@@ -684,7 +701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -713,13 +730,13 @@
         <v>45782</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -748,13 +765,13 @@
         <v>45782</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -789,7 +806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -824,7 +841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -853,13 +870,13 @@
         <v>45782</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -888,13 +905,13 @@
         <v>45782</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -923,13 +940,13 @@
         <v>45782</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -958,52 +975,55 @@
         <v>45782</v>
       </c>
       <c r="J9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="21">
+        <v>2025</v>
+      </c>
+      <c r="D10" s="20">
+        <v>18</v>
+      </c>
+      <c r="E10" s="22">
+        <v>45782</v>
+      </c>
+      <c r="F10" s="22">
+        <v>45786</v>
+      </c>
+      <c r="G10" s="23">
+        <v>331865</v>
+      </c>
+      <c r="H10" s="24">
+        <v>45748</v>
+      </c>
+      <c r="I10" s="22">
+        <v>45782</v>
+      </c>
+      <c r="J10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="9">
-        <v>2025</v>
-      </c>
-      <c r="D10" s="12">
-        <v>18</v>
-      </c>
-      <c r="E10" s="13">
-        <v>45782</v>
-      </c>
-      <c r="F10" s="13">
-        <v>45786</v>
-      </c>
-      <c r="G10" s="18">
-        <v>331865</v>
-      </c>
-      <c r="H10" s="14">
-        <v>45748</v>
-      </c>
-      <c r="I10" s="13">
-        <v>45782</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="9">
@@ -1028,17 +1048,17 @@
         <v>45782</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="9">
@@ -1069,11 +1089,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="9">
@@ -1104,11 +1124,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="9">
@@ -1133,17 +1153,17 @@
         <v>45782</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="9">
@@ -1168,17 +1188,17 @@
         <v>45782</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="9">
@@ -1203,17 +1223,17 @@
         <v>45782</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="9">
@@ -1238,17 +1258,17 @@
         <v>45782</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="9">
@@ -1273,17 +1293,17 @@
         <v>45782</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="9">
@@ -1308,7 +1328,7 @@
         <v>45782</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>11</v>
@@ -1318,7 +1338,7 @@
       <c r="A20" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="9">
@@ -1343,7 +1363,7 @@
         <v>45782</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>11</v>
@@ -1353,7 +1373,7 @@
       <c r="A21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="9">
@@ -1388,7 +1408,7 @@
       <c r="A22" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="9">
@@ -1423,7 +1443,7 @@
       <c r="A23" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="9">
@@ -1438,7 +1458,7 @@
       <c r="F23" s="13">
         <v>45786</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="19">
         <v>315817</v>
       </c>
       <c r="H23" s="14">
@@ -1455,13 +1475,13 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="19">
         <v>2025</v>
       </c>
       <c r="D24" s="15">
@@ -1482,18 +1502,18 @@
       <c r="I24" s="16">
         <v>45782</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K24" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="12">
@@ -1517,8 +1537,8 @@
       <c r="I25" s="13">
         <v>45782</v>
       </c>
-      <c r="J25" s="12" t="s">
-        <v>12</v>
+      <c r="J25" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>11</v>
@@ -1660,6 +1680,11 @@
     <filterColumn colId="7">
       <filters>
         <dateGroupItem year="2025" month="4" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="Pendente"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
@@ -1678,7 +1703,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:K12"/>
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1751,7 +1776,7 @@
       <c r="F2" s="13">
         <v>45786</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="20">
         <v>333999</v>
       </c>
       <c r="H2" s="14">
@@ -1767,7 +1792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
@@ -1796,7 +1821,7 @@
         <v>45782</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>15</v>
@@ -1831,7 +1856,7 @@
         <v>45782</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>15</v>
@@ -1856,7 +1881,7 @@
       <c r="F5" s="13">
         <v>45786</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="20">
         <v>334264</v>
       </c>
       <c r="H5" s="14">
@@ -1901,7 +1926,7 @@
         <v>45782</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>15</v>
@@ -1936,7 +1961,7 @@
         <v>45782</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>15</v>
@@ -1971,7 +1996,7 @@
         <v>45782</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>15</v>
@@ -2006,7 +2031,7 @@
         <v>45782</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>15</v>
@@ -2041,13 +2066,13 @@
         <v>45782</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
@@ -2076,7 +2101,7 @@
         <v>45782</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>15</v>
@@ -2111,7 +2136,7 @@
         <v>45782</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>15</v>
@@ -2143,5 +2168,6 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Base/Backlog_18.xlsx
+++ b/Base/Backlog_18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56682469-2E81-4792-887E-B0F6B17F240E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBD9237-17C0-405D-A937-AF84BA03BFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>Arthur Hassuma</t>
   </si>
   <si>
-    <t>Erick Silva</t>
-  </si>
-  <si>
     <t>Mara Neves</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>Problema</t>
+  </si>
+  <si>
+    <t>Erick da Silva</t>
   </si>
 </sst>
 </file>
@@ -642,11 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:K24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -701,12 +700,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C2" s="9">
         <v>2025</v>
@@ -730,13 +729,13 @@
         <v>45782</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -765,7 +764,7 @@
         <v>45782</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>11</v>
@@ -841,7 +840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -870,13 +869,13 @@
         <v>45782</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -905,13 +904,13 @@
         <v>45782</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -940,13 +939,13 @@
         <v>45782</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -975,7 +974,7 @@
         <v>45782</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>11</v>
@@ -1016,10 +1015,10 @@
         <v>11</v>
       </c>
       <c r="L10" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -1048,7 +1047,7 @@
         <v>45782</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>11</v>
@@ -1124,7 +1123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
@@ -1153,13 +1152,13 @@
         <v>45782</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
@@ -1188,13 +1187,13 @@
         <v>45782</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
@@ -1223,13 +1222,13 @@
         <v>45782</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
@@ -1258,13 +1257,13 @@
         <v>45782</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
@@ -1293,13 +1292,13 @@
         <v>45782</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>4</v>
       </c>
@@ -1328,13 +1327,13 @@
         <v>45782</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>4</v>
       </c>
@@ -1363,7 +1362,7 @@
         <v>45782</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>11</v>
@@ -1439,7 +1438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>4</v>
       </c>
@@ -1509,7 +1508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>4</v>
       </c>
@@ -1538,7 +1537,7 @@
         <v>45782</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>11</v>
@@ -1677,16 +1676,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J25" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
-    <filterColumn colId="7">
-      <filters>
-        <dateGroupItem year="2025" month="4" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="Pendente"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J13">
       <sortCondition ref="B1:B13"/>
     </sortState>
@@ -1702,8 +1691,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:K2"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1821,7 +1810,7 @@
         <v>45782</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>15</v>
@@ -1856,7 +1845,7 @@
         <v>45782</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>15</v>
@@ -1867,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="12">
         <v>2025</v>
@@ -1902,7 +1891,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="12">
         <v>2025</v>
@@ -1926,7 +1915,7 @@
         <v>45782</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>15</v>
@@ -1937,7 +1926,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="12">
         <v>2025</v>
@@ -1961,7 +1950,7 @@
         <v>45782</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>15</v>
@@ -1972,7 +1961,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="12">
         <v>2025</v>
@@ -1996,7 +1985,7 @@
         <v>45782</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>15</v>
@@ -2007,7 +1996,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="12">
         <v>2025</v>
@@ -2031,7 +2020,7 @@
         <v>45782</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>15</v>
@@ -2066,7 +2055,7 @@
         <v>45782</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>15</v>
@@ -2077,7 +2066,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="12">
         <v>2025</v>
@@ -2101,7 +2090,7 @@
         <v>45782</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>15</v>
@@ -2112,7 +2101,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="12">
         <v>2025</v>
@@ -2136,7 +2125,7 @@
         <v>45782</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>15</v>
